--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang10/02.XuLyBH/XLBH2010_TarisHN.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang10/02.XuLyBH/XLBH2010_TarisHN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.10.23.22\Nam2020\Thang10\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BAO HANH\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang10\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="30" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="150">
   <si>
     <t>STT</t>
   </si>
@@ -484,6 +484,9 @@
   </si>
   <si>
     <t>02/11/2020</t>
+  </si>
+  <si>
+    <t>Không sửa</t>
   </si>
 </sst>
 </file>
@@ -1007,30 +1010,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1052,10 +1031,34 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1365,8 +1368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E21" sqref="A21:E21"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1397,43 +1400,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97" t="s">
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="F2" s="97"/>
+      <c r="F2" s="107"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1478,58 +1481,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="99" t="s">
+      <c r="K4" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="99"/>
-      <c r="M4" s="100" t="s">
+      <c r="L4" s="101"/>
+      <c r="M4" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="100" t="s">
+      <c r="N4" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="99" t="s">
+      <c r="O4" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="108" t="s">
+      <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="99" t="s">
+      <c r="Q4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="99" t="s">
+      <c r="R4" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="109" t="s">
+      <c r="S4" s="102" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="99" t="s">
+      <c r="V4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="99" t="s">
+      <c r="W4" s="101" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="98"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1554,24 +1557,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="99"/>
+      <c r="J5" s="101"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="99"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="99"/>
-      <c r="R5" s="99"/>
-      <c r="S5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="103"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="99"/>
-      <c r="W5" s="99"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1595,7 +1598,9 @@
       <c r="G6" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="71"/>
+      <c r="H6" s="71" t="s">
+        <v>149</v>
+      </c>
       <c r="I6" s="62" t="s">
         <v>71</v>
       </c>
@@ -1625,7 +1630,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="70"/>
-      <c r="V6" s="102" t="s">
+      <c r="V6" s="94" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1656,7 +1661,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="70"/>
-      <c r="V7" s="103"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1685,7 +1690,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="70"/>
-      <c r="V8" s="103"/>
+      <c r="V8" s="95"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1714,7 +1719,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="70"/>
       <c r="U9" s="70"/>
-      <c r="V9" s="103"/>
+      <c r="V9" s="95"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1743,7 +1748,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="70"/>
       <c r="U10" s="70"/>
-      <c r="V10" s="103"/>
+      <c r="V10" s="95"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1772,7 +1777,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="70"/>
       <c r="U11" s="70"/>
-      <c r="V11" s="103"/>
+      <c r="V11" s="95"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1801,7 +1806,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="70"/>
       <c r="U12" s="70"/>
-      <c r="V12" s="102" t="s">
+      <c r="V12" s="94" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1832,7 +1837,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="70"/>
       <c r="U13" s="70"/>
-      <c r="V13" s="103"/>
+      <c r="V13" s="95"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1861,7 +1866,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="70"/>
       <c r="U14" s="70"/>
-      <c r="V14" s="103"/>
+      <c r="V14" s="95"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1890,7 +1895,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="70"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="103"/>
+      <c r="V15" s="95"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1919,7 +1924,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="70"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="104"/>
+      <c r="V16" s="96"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3153,10 +3158,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="105" t="s">
+      <c r="V56" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="105">
+      <c r="W56" s="97">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3185,8 +3190,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="106"/>
-      <c r="W57" s="106"/>
+      <c r="V57" s="98"/>
+      <c r="W57" s="98"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3212,8 +3217,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="107"/>
-      <c r="W58" s="107"/>
+      <c r="V58" s="99"/>
+      <c r="W58" s="99"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4500,6 +4505,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -4510,16 +4525,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4530,7 +4535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -4562,43 +4567,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97" t="s">
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="F2" s="97"/>
+      <c r="F2" s="107"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4643,58 +4648,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="99" t="s">
+      <c r="K4" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="99"/>
-      <c r="M4" s="100" t="s">
+      <c r="L4" s="101"/>
+      <c r="M4" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="100" t="s">
+      <c r="N4" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="99" t="s">
+      <c r="O4" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="108" t="s">
+      <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="99" t="s">
+      <c r="Q4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="99" t="s">
+      <c r="R4" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="109" t="s">
+      <c r="S4" s="102" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="99" t="s">
+      <c r="V4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="99" t="s">
+      <c r="W4" s="101" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="98"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4719,24 +4724,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="99"/>
+      <c r="J5" s="101"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="99"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="99"/>
-      <c r="R5" s="99"/>
-      <c r="S5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="103"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="99"/>
-      <c r="W5" s="99"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4788,7 +4793,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="67"/>
-      <c r="V6" s="102" t="s">
+      <c r="V6" s="94" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4849,7 +4854,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="67"/>
-      <c r="V7" s="103"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4908,7 +4913,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="67"/>
-      <c r="V8" s="103"/>
+      <c r="V8" s="95"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4965,7 +4970,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="67"/>
       <c r="U9" s="67"/>
-      <c r="V9" s="103"/>
+      <c r="V9" s="95"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -5022,7 +5027,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="67"/>
       <c r="U10" s="67"/>
-      <c r="V10" s="103"/>
+      <c r="V10" s="95"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5077,7 +5082,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="67"/>
       <c r="U11" s="67"/>
-      <c r="V11" s="103"/>
+      <c r="V11" s="95"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5134,7 +5139,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="67"/>
       <c r="U12" s="67"/>
-      <c r="V12" s="102" t="s">
+      <c r="V12" s="94" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -5193,7 +5198,7 @@
       <c r="S13" s="92"/>
       <c r="T13" s="67"/>
       <c r="U13" s="67"/>
-      <c r="V13" s="103"/>
+      <c r="V13" s="95"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5254,7 +5259,7 @@
       <c r="S14" s="92"/>
       <c r="T14" s="67"/>
       <c r="U14" s="67"/>
-      <c r="V14" s="103"/>
+      <c r="V14" s="95"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5311,7 +5316,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="67"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="103"/>
+      <c r="V15" s="95"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5366,7 +5371,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="67"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="104"/>
+      <c r="V16" s="96"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6854,10 +6859,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="105" t="s">
+      <c r="V56" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="105">
+      <c r="W56" s="97">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6886,8 +6891,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="106"/>
-      <c r="W57" s="106"/>
+      <c r="V57" s="98"/>
+      <c r="W57" s="98"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6913,8 +6918,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="107"/>
-      <c r="W58" s="107"/>
+      <c r="V58" s="99"/>
+      <c r="W58" s="99"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -8201,6 +8206,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -8211,16 +8226,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8263,43 +8268,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97" t="s">
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="F2" s="97"/>
+      <c r="F2" s="107"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="73"/>
@@ -8344,58 +8349,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="99" t="s">
+      <c r="K4" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="99"/>
-      <c r="M4" s="100" t="s">
+      <c r="L4" s="101"/>
+      <c r="M4" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="100" t="s">
+      <c r="N4" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="99" t="s">
+      <c r="O4" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="108" t="s">
+      <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="99" t="s">
+      <c r="Q4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="99" t="s">
+      <c r="R4" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="109" t="s">
+      <c r="S4" s="102" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="99" t="s">
+      <c r="V4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="99" t="s">
+      <c r="W4" s="101" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="98"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -8420,24 +8425,24 @@
       <c r="I5" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="99"/>
+      <c r="J5" s="101"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="99"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="99"/>
-      <c r="R5" s="99"/>
-      <c r="S5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="103"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="99"/>
-      <c r="W5" s="99"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -8491,7 +8496,7 @@
       </c>
       <c r="T6" s="28"/>
       <c r="U6" s="64"/>
-      <c r="V6" s="102" t="s">
+      <c r="V6" s="94" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -8556,7 +8561,7 @@
       </c>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="103"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8613,7 +8618,7 @@
       </c>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="103"/>
+      <c r="V8" s="95"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8676,7 +8681,7 @@
       </c>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="103"/>
+      <c r="V9" s="95"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -8737,7 +8742,7 @@
       </c>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="103"/>
+      <c r="V10" s="95"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8796,7 +8801,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="103"/>
+      <c r="V11" s="95"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8857,7 +8862,7 @@
       </c>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="102" t="s">
+      <c r="V12" s="94" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -8916,7 +8921,7 @@
       <c r="S13" s="60"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="103"/>
+      <c r="V13" s="95"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8945,7 +8950,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="103"/>
+      <c r="V14" s="95"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8974,7 +8979,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="103"/>
+      <c r="V15" s="95"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9003,7 +9008,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="104"/>
+      <c r="V16" s="96"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10237,10 +10242,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="105" t="s">
+      <c r="V56" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="105">
+      <c r="W56" s="97">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -10269,8 +10274,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="106"/>
-      <c r="W57" s="106"/>
+      <c r="V57" s="98"/>
+      <c r="W57" s="98"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -10296,8 +10301,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="107"/>
-      <c r="W58" s="107"/>
+      <c r="V58" s="99"/>
+      <c r="W58" s="99"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -11584,6 +11589,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -11594,16 +11609,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11646,43 +11651,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97" t="s">
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="F2" s="97"/>
+      <c r="F2" s="107"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -11727,58 +11732,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="99" t="s">
+      <c r="K4" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="99"/>
-      <c r="M4" s="100" t="s">
+      <c r="L4" s="101"/>
+      <c r="M4" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="100" t="s">
+      <c r="N4" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="99" t="s">
+      <c r="O4" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="108" t="s">
+      <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="99" t="s">
+      <c r="Q4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="99" t="s">
+      <c r="R4" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="109" t="s">
+      <c r="S4" s="102" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="99" t="s">
+      <c r="V4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="99" t="s">
+      <c r="W4" s="101" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="98"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -11803,24 +11808,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="99"/>
+      <c r="J5" s="101"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="99"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="99"/>
-      <c r="R5" s="99"/>
-      <c r="S5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="103"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="99"/>
-      <c r="W5" s="99"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -11846,7 +11851,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="102" t="s">
+      <c r="V6" s="94" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -11877,7 +11882,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="103"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -11906,7 +11911,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="103"/>
+      <c r="V8" s="95"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -11935,7 +11940,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="103"/>
+      <c r="V9" s="95"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -11964,7 +11969,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="103"/>
+      <c r="V10" s="95"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11993,7 +11998,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="103"/>
+      <c r="V11" s="95"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -12022,7 +12027,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="102" t="s">
+      <c r="V12" s="94" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -12053,7 +12058,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="103"/>
+      <c r="V13" s="95"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -12082,7 +12087,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="103"/>
+      <c r="V14" s="95"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -12111,7 +12116,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="103"/>
+      <c r="V15" s="95"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -12140,7 +12145,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="104"/>
+      <c r="V16" s="96"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -13374,10 +13379,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="105" t="s">
+      <c r="V56" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="105">
+      <c r="W56" s="97">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -13406,8 +13411,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="106"/>
-      <c r="W57" s="106"/>
+      <c r="V57" s="98"/>
+      <c r="W57" s="98"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -13433,8 +13438,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="107"/>
-      <c r="W58" s="107"/>
+      <c r="V58" s="99"/>
+      <c r="W58" s="99"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -14721,6 +14726,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -14731,16 +14746,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang10/02.XuLyBH/XLBH2010_TarisHN.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang10/02.XuLyBH/XLBH2010_TarisHN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="30" r:id="rId1"/>
@@ -1010,6 +1010,30 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1031,34 +1055,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1368,8 +1368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1400,43 +1400,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="107" t="s">
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97" t="s">
         <v>147</v>
       </c>
-      <c r="F2" s="107"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1481,58 +1481,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="101" t="s">
+      <c r="K4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="101"/>
-      <c r="M4" s="109" t="s">
+      <c r="L4" s="99"/>
+      <c r="M4" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="109" t="s">
+      <c r="N4" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="101" t="s">
+      <c r="O4" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="100" t="s">
+      <c r="P4" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="101" t="s">
+      <c r="Q4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="101" t="s">
+      <c r="R4" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="102" t="s">
+      <c r="S4" s="109" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="101" t="s">
+      <c r="V4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="101" t="s">
+      <c r="W4" s="99" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="108"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1557,24 +1557,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="101"/>
+      <c r="J5" s="99"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="101"/>
-      <c r="S5" s="103"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="110"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="101"/>
-      <c r="W5" s="101"/>
+      <c r="V5" s="99"/>
+      <c r="W5" s="99"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1598,7 +1598,7 @@
       <c r="G6" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="H6" s="51" t="s">
         <v>149</v>
       </c>
       <c r="I6" s="62" t="s">
@@ -1630,7 +1630,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="70"/>
-      <c r="V6" s="94" t="s">
+      <c r="V6" s="102" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1661,7 +1661,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="70"/>
-      <c r="V7" s="95"/>
+      <c r="V7" s="103"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1690,7 +1690,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="70"/>
-      <c r="V8" s="95"/>
+      <c r="V8" s="103"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1719,7 +1719,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="70"/>
       <c r="U9" s="70"/>
-      <c r="V9" s="95"/>
+      <c r="V9" s="103"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1748,7 +1748,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="70"/>
       <c r="U10" s="70"/>
-      <c r="V10" s="95"/>
+      <c r="V10" s="103"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1777,7 +1777,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="70"/>
       <c r="U11" s="70"/>
-      <c r="V11" s="95"/>
+      <c r="V11" s="103"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1806,7 +1806,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="70"/>
       <c r="U12" s="70"/>
-      <c r="V12" s="94" t="s">
+      <c r="V12" s="102" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1837,7 +1837,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="70"/>
       <c r="U13" s="70"/>
-      <c r="V13" s="95"/>
+      <c r="V13" s="103"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1866,7 +1866,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="70"/>
       <c r="U14" s="70"/>
-      <c r="V14" s="95"/>
+      <c r="V14" s="103"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1895,7 +1895,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="70"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="95"/>
+      <c r="V15" s="103"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1924,7 +1924,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="70"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="96"/>
+      <c r="V16" s="104"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3158,10 +3158,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="97" t="s">
+      <c r="V56" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="97">
+      <c r="W56" s="105">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3190,8 +3190,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="98"/>
-      <c r="W57" s="98"/>
+      <c r="V57" s="106"/>
+      <c r="W57" s="106"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3217,8 +3217,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="99"/>
-      <c r="W58" s="99"/>
+      <c r="V58" s="107"/>
+      <c r="W58" s="107"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4505,6 +4505,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -4515,16 +4525,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4567,43 +4567,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="107" t="s">
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97" t="s">
         <v>147</v>
       </c>
-      <c r="F2" s="107"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4648,58 +4648,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="101" t="s">
+      <c r="K4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="101"/>
-      <c r="M4" s="109" t="s">
+      <c r="L4" s="99"/>
+      <c r="M4" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="109" t="s">
+      <c r="N4" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="101" t="s">
+      <c r="O4" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="100" t="s">
+      <c r="P4" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="101" t="s">
+      <c r="Q4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="101" t="s">
+      <c r="R4" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="102" t="s">
+      <c r="S4" s="109" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="101" t="s">
+      <c r="V4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="101" t="s">
+      <c r="W4" s="99" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="108"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4724,24 +4724,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="101"/>
+      <c r="J5" s="99"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="101"/>
-      <c r="S5" s="103"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="110"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="101"/>
-      <c r="W5" s="101"/>
+      <c r="V5" s="99"/>
+      <c r="W5" s="99"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4793,7 +4793,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="67"/>
-      <c r="V6" s="94" t="s">
+      <c r="V6" s="102" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4854,7 +4854,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="67"/>
-      <c r="V7" s="95"/>
+      <c r="V7" s="103"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4913,7 +4913,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="67"/>
-      <c r="V8" s="95"/>
+      <c r="V8" s="103"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4970,7 +4970,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="67"/>
       <c r="U9" s="67"/>
-      <c r="V9" s="95"/>
+      <c r="V9" s="103"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -5027,7 +5027,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="67"/>
       <c r="U10" s="67"/>
-      <c r="V10" s="95"/>
+      <c r="V10" s="103"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5082,7 +5082,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="67"/>
       <c r="U11" s="67"/>
-      <c r="V11" s="95"/>
+      <c r="V11" s="103"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5139,7 +5139,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="67"/>
       <c r="U12" s="67"/>
-      <c r="V12" s="94" t="s">
+      <c r="V12" s="102" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -5198,7 +5198,7 @@
       <c r="S13" s="92"/>
       <c r="T13" s="67"/>
       <c r="U13" s="67"/>
-      <c r="V13" s="95"/>
+      <c r="V13" s="103"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5259,7 +5259,7 @@
       <c r="S14" s="92"/>
       <c r="T14" s="67"/>
       <c r="U14" s="67"/>
-      <c r="V14" s="95"/>
+      <c r="V14" s="103"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5316,7 +5316,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="67"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="95"/>
+      <c r="V15" s="103"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5371,7 +5371,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="67"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="96"/>
+      <c r="V16" s="104"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6859,10 +6859,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="97" t="s">
+      <c r="V56" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="97">
+      <c r="W56" s="105">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6891,8 +6891,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="98"/>
-      <c r="W57" s="98"/>
+      <c r="V57" s="106"/>
+      <c r="W57" s="106"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6918,8 +6918,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="99"/>
-      <c r="W58" s="99"/>
+      <c r="V58" s="107"/>
+      <c r="W58" s="107"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -8206,6 +8206,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -8216,16 +8226,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8236,8 +8236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8268,43 +8268,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="107" t="s">
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97" t="s">
         <v>147</v>
       </c>
-      <c r="F2" s="107"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="73"/>
@@ -8349,58 +8349,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="101" t="s">
+      <c r="K4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="101"/>
-      <c r="M4" s="109" t="s">
+      <c r="L4" s="99"/>
+      <c r="M4" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="109" t="s">
+      <c r="N4" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="101" t="s">
+      <c r="O4" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="100" t="s">
+      <c r="P4" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="101" t="s">
+      <c r="Q4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="101" t="s">
+      <c r="R4" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="102" t="s">
+      <c r="S4" s="109" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="101" t="s">
+      <c r="V4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="101" t="s">
+      <c r="W4" s="99" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="108"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -8425,24 +8425,24 @@
       <c r="I5" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="101"/>
+      <c r="J5" s="99"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="101"/>
-      <c r="S5" s="103"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="110"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="101"/>
-      <c r="W5" s="101"/>
+      <c r="V5" s="99"/>
+      <c r="W5" s="99"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -8496,7 +8496,7 @@
       </c>
       <c r="T6" s="28"/>
       <c r="U6" s="64"/>
-      <c r="V6" s="94" t="s">
+      <c r="V6" s="102" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -8561,7 +8561,7 @@
       </c>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="95"/>
+      <c r="V7" s="103"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8618,7 +8618,7 @@
       </c>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="95"/>
+      <c r="V8" s="103"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8681,7 +8681,7 @@
       </c>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="95"/>
+      <c r="V9" s="103"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -8742,7 +8742,7 @@
       </c>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="95"/>
+      <c r="V10" s="103"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8801,7 +8801,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="95"/>
+      <c r="V11" s="103"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8862,7 +8862,7 @@
       </c>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="94" t="s">
+      <c r="V12" s="102" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -8921,7 +8921,7 @@
       <c r="S13" s="60"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="95"/>
+      <c r="V13" s="103"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8950,7 +8950,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="95"/>
+      <c r="V14" s="103"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8979,7 +8979,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="95"/>
+      <c r="V15" s="103"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9008,7 +9008,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="96"/>
+      <c r="V16" s="104"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10242,10 +10242,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="97" t="s">
+      <c r="V56" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="97">
+      <c r="W56" s="105">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -10274,8 +10274,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="98"/>
-      <c r="W57" s="98"/>
+      <c r="V57" s="106"/>
+      <c r="W57" s="106"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -10301,8 +10301,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="99"/>
-      <c r="W58" s="99"/>
+      <c r="V58" s="107"/>
+      <c r="W58" s="107"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -11589,6 +11589,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -11599,16 +11609,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11651,43 +11651,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="107" t="s">
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97" t="s">
         <v>147</v>
       </c>
-      <c r="F2" s="107"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -11732,58 +11732,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="101" t="s">
+      <c r="K4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="101"/>
-      <c r="M4" s="109" t="s">
+      <c r="L4" s="99"/>
+      <c r="M4" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="109" t="s">
+      <c r="N4" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="101" t="s">
+      <c r="O4" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="100" t="s">
+      <c r="P4" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="101" t="s">
+      <c r="Q4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="101" t="s">
+      <c r="R4" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="102" t="s">
+      <c r="S4" s="109" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="101" t="s">
+      <c r="V4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="101" t="s">
+      <c r="W4" s="99" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="108"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -11808,24 +11808,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="101"/>
+      <c r="J5" s="99"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="101"/>
-      <c r="S5" s="103"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="110"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="101"/>
-      <c r="W5" s="101"/>
+      <c r="V5" s="99"/>
+      <c r="W5" s="99"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -11851,7 +11851,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="94" t="s">
+      <c r="V6" s="102" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -11882,7 +11882,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="95"/>
+      <c r="V7" s="103"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -11911,7 +11911,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="95"/>
+      <c r="V8" s="103"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -11940,7 +11940,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="95"/>
+      <c r="V9" s="103"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -11969,7 +11969,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="95"/>
+      <c r="V10" s="103"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11998,7 +11998,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="95"/>
+      <c r="V11" s="103"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -12027,7 +12027,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="94" t="s">
+      <c r="V12" s="102" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -12058,7 +12058,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="95"/>
+      <c r="V13" s="103"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -12087,7 +12087,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="95"/>
+      <c r="V14" s="103"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -12116,7 +12116,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="95"/>
+      <c r="V15" s="103"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -12145,7 +12145,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="96"/>
+      <c r="V16" s="104"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -13379,10 +13379,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="97" t="s">
+      <c r="V56" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="97">
+      <c r="W56" s="105">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -13411,8 +13411,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="98"/>
-      <c r="W57" s="98"/>
+      <c r="V57" s="106"/>
+      <c r="W57" s="106"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -13438,8 +13438,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="99"/>
-      <c r="W58" s="99"/>
+      <c r="V58" s="107"/>
+      <c r="W58" s="107"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -14726,6 +14726,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -14736,16 +14746,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
